--- a/data/trans_dic/P18_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P18_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido deprimida en algún momento o más en la última semana</t>
+          <t>Población que se ha sentido deprimida en algún momento o más en la última semana (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>49,86%</t>
+          <t>37,95%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>38,17%</t>
+          <t>62,91%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>34,26%</t>
+          <t>70,02%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>34,71%</t>
+          <t>64,97%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>62,52%</t>
+          <t>39,91%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>56,19%</t>
+          <t>31,52%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>59,89%</t>
+          <t>35,81%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>54,91%</t>
+          <t>30,97%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>56,73%</t>
+          <t>30,26%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>47,78%</t>
+          <t>41,86%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>48,73%</t>
+          <t>34,56%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>46,21%</t>
+          <t>48,68%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>49,6%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>47,01%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>40,98%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>38,45; 62,37</t>
+          <t>20,27; 54,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,44; 55,66</t>
+          <t>45,37; 83,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,74; 44,67</t>
+          <t>53,23; 86,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,87; 45,16</t>
+          <t>46,47; 85,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>53,24; 70,79</t>
+          <t>14,42; 61,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,91; 65,74</t>
+          <t>19,61; 44,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>50,17; 70,98</t>
+          <t>24,19; 49,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>33,19; 67,51</t>
+          <t>18,46; 44,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>50,32; 64,26</t>
+          <t>18,77; 43,62</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>39,84; 56,43</t>
+          <t>27,3; 61,79</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>40,3; 58,37</t>
+          <t>23,98; 45,05</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>34,29; 55,48</t>
+          <t>37,27; 64,0</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>37,4; 64,57</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>33,71; 66,2</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>25,92; 55,65</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>36,1%</t>
+          <t>66,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>76,54%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,11%</t>
+          <t>70,74%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>30,66%</t>
+          <t>67,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>63,08%</t>
+          <t>64,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>44,36%</t>
+          <t>34,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>50,03%</t>
+          <t>50,72%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>49,47%</t>
+          <t>46,47%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>50,26%</t>
+          <t>47,66%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>32,82%</t>
+          <t>50,55%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>41,06%</t>
+          <t>49,95%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>39,68%</t>
+          <t>63,12%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>58,53%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>57,89%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>57,8%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,12; 42,77</t>
+          <t>58,84; 74,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,78; 25,95</t>
+          <t>68,96; 83,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,79; 38,82</t>
+          <t>62,37; 78,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24,27; 37,87</t>
+          <t>55,94; 76,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>56,74; 68,46</t>
+          <t>52,14; 73,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,25; 49,84</t>
+          <t>27,72; 41,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,17; 55,95</t>
+          <t>42,96; 57,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>43,43; 55,07</t>
+          <t>39,25; 54,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>45,7; 54,37</t>
+          <t>39,83; 54,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,57; 37,17</t>
+          <t>43,03; 57,97</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>37,0; 45,8</t>
+          <t>43,81; 55,83</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>34,96; 44,53</t>
+          <t>57,85; 68,44</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>52,38; 63,74</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>51,37; 63,12</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>51,01; 63,28</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>31,25%</t>
+          <t>64,06%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,82%</t>
+          <t>78,44%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>30,32%</t>
+          <t>68,31%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>28,21%</t>
+          <t>69,37%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>66,67%</t>
+          <t>67,55%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>40,05%</t>
+          <t>35,39%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>43,75%</t>
+          <t>61,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>46,73%</t>
+          <t>58,21%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>50,32%</t>
+          <t>56,32%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>29,81%</t>
+          <t>59,47%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>37,5%</t>
+          <t>48,09%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>37,93%</t>
+          <t>68,76%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>62,76%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>62,28%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>63,25%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,78; 39,2</t>
+          <t>54,56; 71,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,93; 23,71</t>
+          <t>69,79; 84,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,0; 37,12</t>
+          <t>58,66; 76,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,09; 35,93</t>
+          <t>59,78; 77,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>60,7; 72,5</t>
+          <t>58,28; 76,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,99; 46,54</t>
+          <t>28,41; 42,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>37,85; 50,42</t>
+          <t>53,36; 68,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>40,43; 53,81</t>
+          <t>50,31; 66,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>45,64; 55,69</t>
+          <t>47,75; 63,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25,25; 34,11</t>
+          <t>50,41; 67,16</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,62; 42,12</t>
+          <t>41,84; 54,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>33,18; 42,46</t>
+          <t>62,97; 73,89</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>56,22; 68,1</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>56,65; 67,84</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>57,25; 68,88</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>36,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>64,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>44,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>49,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>49,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>51,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>34,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>41,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>40,31%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,56; 41,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,11; 27,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,62; 36,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,15; 35,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>60,66; 67,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,05; 49,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>45,52; 54,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>44,29; 53,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>48,69; 54,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>31,28; 37,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>38,08; 44,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>37,11; 43,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>61,63%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>75,28%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>69,74%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>67,78%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>61,47%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>34,53%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>53,02%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>49,15%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>48,51%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>52,09%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>47,12%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>63,32%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>58,95%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>57,93%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>56,64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>55,23; 67,6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>70,11; 80,64</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>64,46; 74,96</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>60,27; 73,31</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>49,8; 68,37</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>29,99; 39,05</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>48,08; 57,79</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>44,25; 54,6</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>43,63; 53,39</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>46,84; 58,08</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>43,44; 51,44</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>59,44; 67,24</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>55,13; 63,02</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>53,73; 61,98</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>50,6; 60,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido deprimida en algún momento o más en la última semana (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>39224</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>81081</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>73839</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>74155</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>70891</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>36472</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>51013</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>35765</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>37035</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>89571</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>75696</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>132094</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>109605</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>111190</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>160462</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>20953; 56004</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>58480; 108204</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>56140; 91497</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>53041; 97712</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>25607; 109589</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>22695; 51818</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>34469; 70849</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>21317; 51151</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>22975; 53392</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>58417; 132215</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>52519; 98689</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>101124; 173677</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>82648; 142672</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>79743; 156588</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>101510; 217935</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>240980</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>328725</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>266156</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>269641</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>334579</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>135274</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>235565</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>177009</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>178810</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>250049</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>376254</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>564290</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>443165</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>448451</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>584628</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>213345; 271047</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>296166; 356544</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>234669; 295605</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>223487; 305118</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>269438; 378073</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>108264; 161267</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>199518; 268103</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>149502; 205859</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>149429; 205725</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>212857; 286755</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>329982; 420519</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>517161; 611798</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>396595; 482622</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>397942; 488964</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>515897; 640046</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>183152</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>261122</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>192897</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>191031</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>237263</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>127273</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>262375</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>200619</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>184420</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>237622</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>310426</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>523497</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>393517</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>375451</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>474884</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>156005; 205441</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>232333; 282707</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>165642; 215468</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>164623; 213039</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>204700; 267905</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>102168; 154272</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>228607; 292042</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>173384; 227483</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>156365; 208291</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>201389; 268338</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>270121; 350629</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>479387; 562526</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>352515; 426979</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>341529; 408968</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>429809; 517119</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>336.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>444.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>412.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>413.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>421.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>463356</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>670928</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>532893</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>534827</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>642732</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>299019</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>548953</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>413393</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>400265</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>577242</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>762375</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1219882</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>946287</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>935093</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1219975</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>415264; 508226</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>624872; 718713</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>492526; 572794</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>475530; 578426</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>520722; 714942</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>259676; 338152</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>497791; 598375</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>372154; 459227</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>359938; 440477</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>519124; 643610</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>702777; 832124</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1145170; 1295448</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>884994; 1011585</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>867239; 1000469</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1089733; 1312403</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
